--- a/results/tables/performance/per_class_detailed_long.xlsx
+++ b/results/tables/performance/per_class_detailed_long.xlsx
@@ -547,7 +547,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>RESNET101</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>0.789</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>0.520</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
@@ -583,17 +583,17 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.865</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>0.563</t>
+          <t>0.587</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="F3" s="7" t="n">
@@ -609,17 +609,17 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.738</t>
+          <t>0.747</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>0.948</t>
+          <t>0.931</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>0.829</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
@@ -635,17 +635,17 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>0.349</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>0.257</t>
+          <t>0.429</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>0.340</t>
+          <t>0.385</t>
         </is>
       </c>
       <c r="F5" s="7" t="n">
@@ -661,17 +661,17 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>0.406</t>
+          <t>0.432</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>0.504</t>
+          <t>0.520</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>0.383</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>0.137</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>0.179</t>
+          <t>0.201</t>
         </is>
       </c>
       <c r="F7" s="7" t="n">
@@ -707,7 +707,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>RESNET152</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -717,17 +717,17 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.879</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>0.511</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.510</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
@@ -743,17 +743,17 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.852</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>0.579</t>
+          <t>0.587</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="F9" s="7" t="n">
@@ -769,12 +769,12 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.744</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.926</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>0.467</t>
+          <t>0.306</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>0.200</t>
+          <t>0.314</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.310</t>
         </is>
       </c>
       <c r="F11" s="7" t="n">
@@ -821,17 +821,17 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>0.631</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>0.342</t>
+          <t>0.424</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>0.473</t>
+          <t>0.508</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
@@ -847,17 +847,17 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>0.557</t>
+          <t>0.429</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.170</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>0.188</t>
+          <t>0.243</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
@@ -867,7 +867,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>RESNET18</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>0.789</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>0.520</t>
+          <t>0.516</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -903,17 +903,17 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>0.865</t>
+          <t>0.891</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>0.587</t>
+          <t>0.563</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
@@ -929,17 +929,17 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.738</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>0.948</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>0.829</t>
+          <t>0.830</t>
         </is>
       </c>
       <c r="F16" s="5" t="n">
@@ -955,17 +955,17 @@
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>0.349</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>0.257</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>0.340</t>
         </is>
       </c>
       <c r="F17" s="7" t="n">
@@ -981,17 +981,17 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>0.663</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>0.432</t>
+          <t>0.406</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>0.520</t>
+          <t>0.504</t>
         </is>
       </c>
       <c r="F18" s="5" t="n">
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>0.383</t>
+          <t>0.385</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>0.201</t>
+          <t>0.179</t>
         </is>
       </c>
       <c r="F19" s="7" t="n">
@@ -1027,7 +1027,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>RESNET34</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.803</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>0.359</t>
+          <t>0.511</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>0.510</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="F20" s="5" t="n">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.853</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>0.587</t>
+          <t>0.579</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>0.695</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="F21" s="7" t="n">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>0.744</t>
+          <t>0.739</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>0.934</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>0.306</t>
+          <t>0.467</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>0.314</t>
+          <t>0.200</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>0.310</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="F23" s="7" t="n">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>0.631</t>
+          <t>0.766</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>0.424</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>0.508</t>
+          <t>0.473</t>
         </is>
       </c>
       <c r="F24" s="5" t="n">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>0.557</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>0.170</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>0.188</t>
         </is>
       </c>
       <c r="F25" s="7" t="n">

--- a/results/tables/performance/per_class_detailed_long.xlsx
+++ b/results/tables/performance/per_class_detailed_long.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
@@ -547,7 +547,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -557,17 +557,17 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>0.789</t>
+          <t>0.809</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>0.520</t>
+          <t>0.511</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.626</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
@@ -583,17 +583,17 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>0.865</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>0.587</t>
+          <t>0.603</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.724</t>
         </is>
       </c>
       <c r="F3" s="7" t="n">
@@ -609,17 +609,17 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.757</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>0.829</t>
+          <t>0.843</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
@@ -635,17 +635,17 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>0.349</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>0.200</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>0.311</t>
         </is>
       </c>
       <c r="F5" s="7" t="n">
@@ -661,17 +661,17 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>0.644</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>0.432</t>
+          <t>0.511</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>0.520</t>
+          <t>0.570</t>
         </is>
       </c>
       <c r="F6" s="5" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>0.383</t>
+          <t>0.638</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.123</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>0.201</t>
+          <t>0.207</t>
         </is>
       </c>
       <c r="F7" s="7" t="n">
@@ -707,7 +707,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -717,17 +717,17 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.699</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>0.359</t>
+          <t>0.520</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>0.510</t>
+          <t>0.596</t>
         </is>
       </c>
       <c r="F8" s="5" t="n">
@@ -743,17 +743,17 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.894</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>0.587</t>
+          <t>0.602</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>0.695</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="F9" s="7" t="n">
@@ -769,17 +769,17 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>0.744</t>
+          <t>0.755</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>0.926</t>
+          <t>0.951</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.842</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
@@ -795,17 +795,17 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>0.306</t>
+          <t>0.471</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>0.314</t>
+          <t>0.229</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>0.310</t>
+          <t>0.308</t>
         </is>
       </c>
       <c r="F11" s="7" t="n">
@@ -821,17 +821,17 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>0.631</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>0.424</t>
+          <t>0.423</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>0.508</t>
+          <t>0.543</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
@@ -847,17 +847,17 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>0.583</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>0.170</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>0.226</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
@@ -867,7 +867,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -877,17 +877,17 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>0.882</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>0.516</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>0.627</t>
+          <t>0.583</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
@@ -903,17 +903,17 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.914</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>0.563</t>
+          <t>0.577</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.708</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
@@ -929,17 +929,17 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>0.738</t>
+          <t>0.742</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>0.948</t>
+          <t>0.965</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>0.839</t>
         </is>
       </c>
       <c r="F16" s="5" t="n">
@@ -955,17 +955,17 @@
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>0.387</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>0.257</t>
+          <t>0.343</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>0.340</t>
+          <t>0.364</t>
         </is>
       </c>
       <c r="F17" s="7" t="n">
@@ -981,17 +981,17 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.889</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>0.406</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>0.504</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="F18" s="5" t="n">
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>0.573</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>0.183</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>0.179</t>
+          <t>0.278</t>
         </is>
       </c>
       <c r="F19" s="7" t="n">
@@ -1027,7 +1027,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>RESNET50</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.831</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>0.511</t>
+          <t>0.552</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.663</t>
         </is>
       </c>
       <c r="F20" s="5" t="n">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.899</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>0.579</t>
+          <t>0.591</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.713</t>
         </is>
       </c>
       <c r="F21" s="7" t="n">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.954</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="F22" s="5" t="n">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>0.467</t>
+          <t>0.364</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>0.200</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="F23" s="7" t="n">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>0.770</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>0.342</t>
+          <t>0.423</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>0.473</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="F24" s="5" t="n">
@@ -1167,29 +1167,190 @@
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>0.557</t>
+          <t>0.417</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>0.188</t>
+          <t>0.213</t>
         </is>
       </c>
       <c r="F25" s="7" t="n">
         <v>300</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>0.726</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>0.547</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>0.624</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>0.904</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>0.616</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>0.732</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Crops</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>0.762</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>0.951</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>0.846</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>11470</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>Shrub</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>0.643</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>0.257</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>0.367</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>0.681</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>0.468</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>0.554</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n"/>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>Bare</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>0.671</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>0.163</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>0.263</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
